--- a/data/trans_orig/P14A97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A97-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{937929ED-2EFD-4252-AB2A-485DFEC07BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4B2DAE-D35D-4777-B1AF-51E46C162209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B939853-3C40-489C-A37B-935D31CF8B77}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0ECE9E7E-BF27-4C9B-B715-4B181FA43CD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>81,9%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>88,03%</t>
   </si>
   <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>18,1%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>78,57%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>83,05%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,109 +195,109 @@
     <t>82,96%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>87,96%</t>
   </si>
   <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>80,62%</t>
   </si>
   <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,202 +309,202 @@
     <t>78,31%</t>
   </si>
   <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>71,01%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>28,99%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>70,55%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
   </si>
   <si>
     <t>87,89%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>82,45%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>76,02%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>51,47%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>23,98%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
   </si>
   <si>
     <t>34,09%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>79,65%</t>
   </si>
   <si>
-    <t>75,55%</t>
+    <t>75,45%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>20,35%</t>
@@ -513,7 +513,7 @@
     <t>16,66%</t>
   </si>
   <si>
-    <t>24,45%</t>
+    <t>24,55%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079B4C6E-0034-492D-9C6A-941EBC36455E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6060314F-1B12-436F-8F6A-1E8B03F07BBA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1676,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763AAF88-C6E0-4910-BEA5-2969D7F6F1F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107E8A1E-592E-4256-A548-DCA22CA52958}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1836,7 +1836,7 @@
         <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1851,13 @@
         <v>8365</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -1866,13 +1866,13 @@
         <v>21943</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -1881,13 +1881,13 @@
         <v>30308</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1955,13 @@
         <v>55597</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>139</v>
@@ -1970,13 +1970,13 @@
         <v>151612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>192</v>
@@ -1985,13 +1985,13 @@
         <v>207209</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +2006,13 @@
         <v>23204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -2021,13 +2021,13 @@
         <v>20890</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2036,13 +2036,13 @@
         <v>44094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2110,13 @@
         <v>8220</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2125,13 +2125,13 @@
         <v>22143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2140,13 +2140,13 @@
         <v>30363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2161,13 @@
         <v>8720</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2176,13 +2176,13 @@
         <v>6986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -2191,13 +2191,13 @@
         <v>15706</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2265,13 @@
         <v>94011</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>235</v>
@@ -2280,13 +2280,13 @@
         <v>258737</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
@@ -2295,13 +2295,13 @@
         <v>352749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,7 +2316,7 @@
         <v>40288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>151</v>

--- a/data/trans_orig/P14A97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A97-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4B2DAE-D35D-4777-B1AF-51E46C162209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{648F69AC-5972-413D-8672-4BCE620BA657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0ECE9E7E-BF27-4C9B-B715-4B181FA43CD9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E81CB1CA-98E5-4224-91F1-7B4AC16AAA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,118 +75,118 @@
     <t>81,9%</t>
   </si>
   <si>
-    <t>70,39%</t>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>23,73%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,325 +195,325 @@
     <t>82,96%</t>
   </si>
   <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>87,96%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>80,62%</t>
   </si>
   <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2015 (Tasa respuesta: 6,27%)</t>
+    <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2016 (Tasa respuesta: 6,27%)</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
   </si>
   <si>
     <t>30,0%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6060314F-1B12-436F-8F6A-1E8B03F07BBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDC3652-CCC7-4B69-B9E0-94CBF565DA11}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1676,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107E8A1E-592E-4256-A548-DCA22CA52958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD91BC-63A6-46AD-9E98-CABD19171614}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1961,7 +1961,7 @@
         <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7">
         <v>139</v>
@@ -1970,13 +1970,13 @@
         <v>151612</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>192</v>
@@ -1985,13 +1985,13 @@
         <v>207209</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +2006,13 @@
         <v>23204</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -2021,13 +2021,13 @@
         <v>20890</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2036,13 +2036,13 @@
         <v>44094</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2110,13 @@
         <v>8220</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2125,13 +2125,13 @@
         <v>22143</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2140,13 +2140,13 @@
         <v>30363</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2161,13 @@
         <v>8720</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2176,13 +2176,13 @@
         <v>6986</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -2191,13 +2191,13 @@
         <v>15706</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2265,13 @@
         <v>94011</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>235</v>
@@ -2280,13 +2280,13 @@
         <v>258737</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
@@ -2295,13 +2295,13 @@
         <v>352749</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,10 +2313,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>40288</v>
+        <v>40289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>151</v>
@@ -2364,7 +2364,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="7">
-        <v>134299</v>
+        <v>134300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
